--- a/xlsx/乍得_intext.xlsx
+++ b/xlsx/乍得_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="845">
   <si>
     <t>乍得</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿拉伯語</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_乍得</t>
+    <t>阿拉伯语</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_乍得</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97%E5%9B%BD%E6%97%97</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97%E5%9C%8B%E5%BE%BD</t>
   </si>
   <si>
-    <t>乍得國徽</t>
+    <t>乍得国徽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97%E4%BA%BA%E6%B0%91</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>非洲聯盟</t>
+    <t>非洲联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E8%B3%88%E6%A2%85%E7%B4%8D</t>
   </si>
   <si>
-    <t>恩賈梅納</t>
+    <t>恩贾梅纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%8F%E7%BE%A4</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%BB%A8%E7%8D%A8%E5%A4%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>一黨獨大制</t>
+    <t>一党独大制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>總統制</t>
+    <t>总统制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97%E6%80%BB%E7%BB%9F</t>
@@ -167,13 +167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>乍得歷史</t>
+    <t>乍得历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%90%84%E5%9B%BD%E5%92%8C%E5%9C%B0%E5%8C%BA%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9D%9E%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>西非時間</t>
+    <t>西非时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8F%E8%B0%83%E4%B8%96%E7%95%8C%E6%97%B6</t>
@@ -275,9 +275,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AF%AD</t>
   </si>
   <si>
-    <t>阿拉伯语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
   </si>
   <si>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
@@ -311,7 +308,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E4%B9%BE%E6%BF%95%E5%AD%A3%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶乾濕季氣候</t>
+    <t>热带干湿季气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9%E8%8D%89%E5%8E%9F</t>
@@ -401,13 +398,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
   </si>
   <si>
-    <t>法国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%B5%A4%E9%81%93%E9%9D%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>法屬赤道非洲</t>
+    <t>法属赤道非洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E7%B4%A2%E7%93%A6%C2%B7%E6%89%98%E5%A7%86%E5%B7%B4%E5%B7%B4%E8%80%B6</t>
@@ -425,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%88%BE%E5%AF%8C%E7%88%BE%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>達爾富爾衝突</t>
+    <t>达尔富尔冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%9B%BD%E6%8B%AF%E6%95%91%E8%BF%90%E5%8A%A8</t>
@@ -437,25 +431,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>政變</t>
+    <t>政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97%E5%8E%86%E5%8F%B2</t>
   </si>
   <si>
-    <t>乍得历史</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B6%85%E5%A7%86%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>加涅姆帝國</t>
+    <t>加涅姆帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%AE%96%E6%B0%91%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>法蘭西殖民帝國</t>
+    <t>法兰西殖民帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -467,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>法國國民議會</t>
+    <t>法国国民议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%B3%95%E5%9B%BD</t>
@@ -539,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E8%98%87%E7%88%BE%C2%B7%E8%93%8B%E6%9C%97%E6%9D%9C%E5%85%8B%E8%A5%BF%E4%BA%9E%C2%B7%E7%93%A6%E4%BC%8A%E6%9D%9C</t>
   </si>
   <si>
-    <t>納蘇爾·蓋朗杜克西亞·瓦伊杜</t>
+    <t>纳苏尔·盖朗杜克西亚·瓦伊杜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%9A%E7%A6%81</t>
@@ -551,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%85%8B%E6%A3%AE%E7%BE%8E%E5%AD%9A</t>
@@ -581,91 +572,91 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%82%91%E7%88%BE-%E6%8B%89%E5%AF%86%E5%8D%80</t>
   </si>
   <si>
-    <t>哈傑爾-拉密區</t>
+    <t>哈杰尔-拉密区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E8%BF%AA%E8%8F%B2%E6%8B%89%E5%8D%80</t>
   </si>
   <si>
-    <t>瓦迪菲拉區</t>
+    <t>瓦迪菲拉区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%89%8E%E5%8B%92%E6%B2%B3%E5%8D%80</t>
   </si>
   <si>
-    <t>加扎勒河區</t>
+    <t>加扎勒河区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E7%88%BE%E5%BA%AB%E5%8D%80</t>
   </si>
   <si>
-    <t>博爾庫區</t>
+    <t>博尔库区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E5%85%A7%E8%BF%AA%E5%8D%80</t>
   </si>
   <si>
-    <t>恩內迪區</t>
+    <t>恩内迪区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E6%8B%89%E5%8D%80</t>
   </si>
   <si>
-    <t>蓋拉區</t>
+    <t>盖拉区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%A5%88%E5%A7%86%E5%8D%80</t>
   </si>
   <si>
-    <t>加奈姆區</t>
+    <t>加奈姆区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E5%8D%80_(%E4%B9%8D%E5%BE%97)</t>
   </si>
   <si>
-    <t>湖區 (乍得)</t>
+    <t>湖区 (乍得)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%B4%9B%E8%B2%A2%E5%8D%80</t>
   </si>
   <si>
-    <t>西洛貢區</t>
+    <t>西洛贡区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B4%9B%E8%B2%A2%E5%8D%80</t>
   </si>
   <si>
-    <t>東洛貢區</t>
+    <t>东洛贡区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%92%E6%9D%9C%E7%88%BE%E5%8D%80</t>
   </si>
   <si>
-    <t>芒杜爾區</t>
+    <t>芒杜尔区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%87%B1%E6%AF%94%E6%B2%B3%E5%8D%80</t>
   </si>
   <si>
-    <t>東凱比河區</t>
+    <t>东凯比河区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%87%B1%E6%AF%94%E6%B2%B3%E5%8D%80</t>
   </si>
   <si>
-    <t>西凱比河區</t>
+    <t>西凯比河区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%B2%99%E9%87%8C%E5%8D%80</t>
   </si>
   <si>
-    <t>中沙里區</t>
+    <t>中沙里区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E9%81%94%E4%BC%8A%E5%8D%80</t>
   </si>
   <si>
-    <t>瓦達伊區</t>
+    <t>瓦达伊区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E6%8B%89%E9%A9%AC%E7%89%B9%E5%8C%BA</t>
@@ -677,19 +668,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%90%89%E8%90%8A%E5%8D%80</t>
   </si>
   <si>
-    <t>坦吉萊區</t>
+    <t>坦吉莱区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%8B%89%E5%8D%80</t>
   </si>
   <si>
-    <t>西拉區</t>
+    <t>西拉区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E8%B2%9D%E6%96%AF%E6%8F%90%E5%8D%80</t>
   </si>
   <si>
-    <t>提貝斯提區</t>
+    <t>提贝斯提区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
@@ -731,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E8%BC%BB%E5%90%88%E5%B8%B6</t>
   </si>
   <si>
-    <t>熱帶輻合帶</t>
+    <t>热带辐合带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%90%88%E6%AC%A2</t>
@@ -749,7 +740,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E8%B2%A2%E6%B2%B3</t>
   </si>
   <si>
-    <t>洛貢河</t>
+    <t>洛贡河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97%E7%BB%8F%E6%B5%8E</t>
@@ -773,7 +764,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%A5%A7</t>
   </si>
   <si>
-    <t>馬奧</t>
+    <t>马奥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%A2%81</t>
@@ -791,7 +782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E6%B4%B2</t>
   </si>
   <si>
-    <t>綠洲</t>
+    <t>绿洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0</t>
@@ -815,13 +806,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E4%BD%9B%E9%BE%8D</t>
   </si>
   <si>
-    <t>雪佛龍</t>
+    <t>雪佛龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E5%9C%8B%E5%AE%B6%E7%9F%B3%E6%B2%B9</t>
   </si>
   <si>
-    <t>馬來西亞國家石油</t>
+    <t>马来西亚国家石油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E9%98%BF%E6%8B%89</t>
@@ -845,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE_(%E4%B9%8D%E5%BE%97)</t>
   </si>
   <si>
-    <t>薩爾 (乍得)</t>
+    <t>萨尔 (乍得)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E6%9D%9C</t>
@@ -875,15 +866,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B2%E7%A6%AE</t>
   </si>
   <si>
-    <t>割禮</t>
+    <t>割礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD</t>
   </si>
   <si>
-    <t>法语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E8%AF%AD</t>
   </si>
   <si>
@@ -893,9 +881,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
   </si>
   <si>
@@ -905,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E9%9D%88%E8%AB%96</t>
   </si>
   <si>
-    <t>泛靈論</t>
+    <t>泛灵论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%A5%9E%E8%AE%BA</t>
@@ -959,13 +944,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E6%97%A5</t>
   </si>
   <si>
-    <t>獨立日</t>
+    <t>独立日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%B8%E8%81%96%E7%AF%80</t>
   </si>
   <si>
-    <t>諸聖節</t>
+    <t>诸圣节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E8%8A%82</t>
@@ -977,13 +962,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB%E7%AF%80</t>
   </si>
   <si>
-    <t>復活節</t>
+    <t>复活节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E9%BD%8B%E7%AF%80</t>
   </si>
   <si>
-    <t>開齋節</t>
+    <t>开斋节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B0%94%E9%82%A6%E8%8A%82</t>
@@ -1007,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%9B%E9%AD%9A</t>
   </si>
   <si>
-    <t>猛魚</t>
+    <t>猛鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E6%A7%BF</t>
@@ -1025,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>乍得國家足球隊</t>
+    <t>乍得国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%AE%E7%90%83</t>
@@ -1049,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%89%B9%E8%B5%A6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際特赦組織</t>
+    <t>国际特赦组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E4%B8%8E%E5%8F%91%E5%B1%95%E7%BB%84%E7%BB%87</t>
@@ -1121,7 +1106,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8D%B1%E6%A9%9F%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際危機組織</t>
+    <t>国际危机组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Africa</t>
@@ -1157,7 +1142,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
@@ -1175,7 +1160,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
@@ -1205,7 +1190,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
@@ -1409,7 +1394,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>南蘇丹</t>
+    <t>南苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9A</t>
@@ -1439,7 +1424,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬印度洋領地</t>
+    <t>英属印度洋领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%82%A3%E5%88%A9%E7%BE%A4%E5%B2%9B</t>
@@ -1463,7 +1448,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89</t>
   </si>
   <si>
-    <t>馬德拉</t>
+    <t>马德拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BA%A6%E7%89%B9</t>
@@ -1529,7 +1514,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%8D%80%E7%B4%A2%E5%BC%95</t>
   </si>
   <si>
-    <t>世界政區索引</t>
+    <t>世界政区索引</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -1625,7 +1610,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
   </si>
   <si>
-    <t>伯利茲</t>
+    <t>伯利兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
@@ -1643,7 +1628,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
+    <t>汶莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
@@ -1883,7 +1868,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -1919,7 +1904,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
@@ -1973,7 +1958,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -1997,7 +1982,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
@@ -2057,7 +2042,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -2093,9 +2078,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%81%94%E7%9B%9F</t>
   </si>
   <si>
-    <t>非洲联盟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
   </si>
   <si>
@@ -2135,19 +2117,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>北賽普勒斯</t>
+    <t>北赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%B4%9B%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>莫洛民族解放陣線</t>
+    <t>莫洛民族解放阵线</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Parliamentary_Union_of_the_OIC_Member_States</t>
@@ -2165,7 +2144,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>法語圈國際組織</t>
+    <t>法语圈国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
@@ -2207,7 +2186,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
@@ -2225,7 +2204,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>新不倫瑞克</t>
+    <t>新不伦瑞克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B</t>
@@ -2237,7 +2216,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -2255,13 +2234,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
@@ -2303,7 +2282,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -2351,7 +2330,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF%C2%B7%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF-%E5%8A%A0%E5%88%A9</t>
   </si>
   <si>
-    <t>布特羅斯·布特羅斯-加利</t>
+    <t>布特罗斯·布特罗斯-加利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%84%E7%BE%8E%E6%A5%B7</t>
@@ -2369,13 +2348,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>法語系運動會</t>
+    <t>法语系运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%9B%BB%E8%A6%96%E5%9C%8B%E9%9A%9B%E4%BA%94%E5%8F%B0</t>
   </si>
   <si>
-    <t>法國電視國際五台</t>
+    <t>法国电视国际五台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A</t>
@@ -2441,9 +2420,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%90%A6%E6%B1%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>聯合國安全理事會否決權</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%B0%94%E5%A1%94%E4%BC%9A%E8%AE%AE</t>
   </si>
   <si>
@@ -2459,7 +2435,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%88%87%E8%81%AF%E5%90%88%E5%9C%8B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>中國與聯合國關係</t>
+    <t>中国与联合国关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E8%A7%A3%E4%BD%93</t>
@@ -2471,7 +2447,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%9C%8B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>四國聯盟</t>
+    <t>四国联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E6%94%B9%E9%9D%A9</t>
@@ -2483,7 +2459,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B_(%E5%A4%A7%E9%99%B8%E6%99%82%E6%9C%9F)</t>
   </si>
   <si>
-    <t>中華民國 (大陸時期)</t>
+    <t>中华民国 (大陆时期)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -2501,9 +2477,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
   </si>
   <si>
@@ -2513,19 +2486,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -2537,7 +2507,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2561,7 +2531,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2573,13 +2543,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -4168,7 +4138,7 @@
         <v>85</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
         <v>4</v>
@@ -4194,10 +4164,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -4223,10 +4193,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>7</v>
@@ -4252,10 +4222,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>11</v>
@@ -4281,10 +4251,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -4310,10 +4280,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>8</v>
@@ -4339,10 +4309,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>5</v>
@@ -4368,10 +4338,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>6</v>
@@ -4397,10 +4367,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>7</v>
@@ -4426,10 +4396,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4455,10 +4425,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>7</v>
@@ -4484,10 +4454,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4513,10 +4483,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4542,10 +4512,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4571,10 +4541,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>5</v>
@@ -4600,10 +4570,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>12</v>
@@ -4629,10 +4599,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -4658,10 +4628,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>7</v>
@@ -4716,10 +4686,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -4745,10 +4715,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
@@ -4774,10 +4744,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -4803,10 +4773,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="G65" t="n">
         <v>30</v>
@@ -4832,10 +4802,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4861,10 +4831,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -4890,10 +4860,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -4948,10 +4918,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4977,10 +4947,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -5006,10 +4976,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -5035,10 +5005,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5064,10 +5034,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -5093,10 +5063,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5122,10 +5092,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -5151,10 +5121,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5180,10 +5150,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5209,10 +5179,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5238,10 +5208,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -5267,10 +5237,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5296,10 +5266,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -5325,10 +5295,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F83" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -5354,10 +5324,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5412,10 +5382,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5470,10 +5440,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F88" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G88" t="n">
         <v>4</v>
@@ -5499,10 +5469,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F89" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5528,10 +5498,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -5557,10 +5527,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F91" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5586,10 +5556,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F92" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5615,10 +5585,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F93" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5644,10 +5614,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F94" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G94" t="n">
         <v>12</v>
@@ -5673,10 +5643,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F95" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -5702,10 +5672,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F96" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5731,10 +5701,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F97" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5760,10 +5730,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5789,10 +5759,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5818,10 +5788,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5847,10 +5817,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5876,10 +5846,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5905,10 +5875,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5934,10 +5904,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5963,10 +5933,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5992,10 +5962,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6021,10 +5991,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -6050,10 +6020,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6079,10 +6049,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6108,10 +6078,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6137,10 +6107,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6166,10 +6136,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6195,10 +6165,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -6224,10 +6194,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6253,10 +6223,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6282,10 +6252,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6311,10 +6281,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -6340,10 +6310,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>114</v>
+      </c>
+      <c r="F118" t="s">
         <v>115</v>
-      </c>
-      <c r="F118" t="s">
-        <v>116</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -6369,10 +6339,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>108</v>
+      </c>
+      <c r="F119" t="s">
         <v>109</v>
-      </c>
-      <c r="F119" t="s">
-        <v>110</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6398,10 +6368,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F120" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6427,10 +6397,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F121" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -6456,10 +6426,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F122" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -6485,10 +6455,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F123" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -6514,10 +6484,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6543,10 +6513,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F125" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6572,10 +6542,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F126" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6601,10 +6571,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F127" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6630,10 +6600,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>108</v>
+      </c>
+      <c r="F128" t="s">
         <v>109</v>
-      </c>
-      <c r="F128" t="s">
-        <v>110</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6659,10 +6629,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F129" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6688,10 +6658,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F130" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6717,10 +6687,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F131" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -6746,10 +6716,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F132" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G132" t="n">
         <v>13</v>
@@ -6804,10 +6774,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F134" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6833,10 +6803,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F135" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6862,10 +6832,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F136" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6891,10 +6861,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F137" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G137" t="n">
         <v>6</v>
@@ -6920,10 +6890,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F138" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6949,10 +6919,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F139" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6978,10 +6948,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F140" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7007,10 +6977,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F141" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7036,10 +7006,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F142" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7065,10 +7035,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F143" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7094,10 +7064,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F144" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G144" t="n">
         <v>12</v>
@@ -7123,10 +7093,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F145" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7152,10 +7122,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F146" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7181,10 +7151,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F147" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7210,10 +7180,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F148" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -7239,10 +7209,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F149" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7268,10 +7238,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F150" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7297,10 +7267,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F151" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -7326,10 +7296,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F152" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -7355,10 +7325,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F153" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7413,10 +7383,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F155" t="s">
-        <v>288</v>
+        <v>6</v>
       </c>
       <c r="G155" t="n">
         <v>11</v>
@@ -7442,10 +7412,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F156" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7471,10 +7441,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F157" t="s">
-        <v>292</v>
+        <v>123</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7500,10 +7470,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F158" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7529,10 +7499,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F159" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7558,10 +7528,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F160" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -7587,10 +7557,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F161" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G161" t="n">
         <v>5</v>
@@ -7616,10 +7586,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F162" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7645,10 +7615,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F163" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7674,10 +7644,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F164" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7703,10 +7673,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F165" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -7732,10 +7702,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F166" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -7761,10 +7731,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F167" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7790,10 +7760,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F168" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7819,10 +7789,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F169" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7848,10 +7818,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F170" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7877,10 +7847,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F171" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7906,10 +7876,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F172" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7935,10 +7905,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F173" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7964,10 +7934,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F174" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7993,10 +7963,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F175" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8022,10 +7992,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F176" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8051,10 +8021,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F177" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8080,10 +8050,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F178" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8109,10 +8079,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F179" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8138,10 +8108,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F180" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8167,10 +8137,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F181" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8196,10 +8166,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F182" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8225,10 +8195,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F183" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8254,10 +8224,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F184" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G184" t="n">
         <v>4</v>
@@ -8283,10 +8253,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F185" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G185" t="n">
         <v>4</v>
@@ -8312,10 +8282,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F186" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8341,10 +8311,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F187" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G187" t="n">
         <v>3</v>
@@ -8370,10 +8340,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F188" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G188" t="n">
         <v>3</v>
@@ -8399,10 +8369,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F189" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G189" t="n">
         <v>3</v>
@@ -8428,10 +8398,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F190" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -8457,10 +8427,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F191" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G191" t="n">
         <v>3</v>
@@ -8486,10 +8456,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F192" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8515,10 +8485,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F193" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G193" t="n">
         <v>10</v>
@@ -8544,10 +8514,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F194" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8573,10 +8543,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F195" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8602,10 +8572,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F196" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G196" t="n">
         <v>3</v>
@@ -8631,10 +8601,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F197" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8660,10 +8630,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F198" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G198" t="n">
         <v>14</v>
@@ -8689,10 +8659,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F199" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8718,10 +8688,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F200" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G200" t="n">
         <v>3</v>
@@ -8747,10 +8717,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F201" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G201" t="n">
         <v>5</v>
@@ -8776,10 +8746,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F202" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G202" t="n">
         <v>5</v>
@@ -8805,10 +8775,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F203" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G203" t="n">
         <v>3</v>
@@ -8834,10 +8804,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F204" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8863,10 +8833,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F205" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G205" t="n">
         <v>4</v>
@@ -8892,10 +8862,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F206" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G206" t="n">
         <v>3</v>
@@ -8921,10 +8891,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F207" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G207" t="n">
         <v>4</v>
@@ -8950,10 +8920,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F208" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G208" t="n">
         <v>3</v>
@@ -8979,10 +8949,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F209" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G209" t="n">
         <v>3</v>
@@ -9008,10 +8978,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F210" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G210" t="n">
         <v>3</v>
@@ -9037,10 +9007,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F211" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -9066,10 +9036,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F212" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -9095,10 +9065,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F213" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G213" t="n">
         <v>4</v>
@@ -9124,10 +9094,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F214" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G214" t="n">
         <v>4</v>
@@ -9153,10 +9123,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F215" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G215" t="n">
         <v>5</v>
@@ -9182,10 +9152,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F216" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G216" t="n">
         <v>3</v>
@@ -9211,10 +9181,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F217" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G217" t="n">
         <v>4</v>
@@ -9240,10 +9210,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F218" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G218" t="n">
         <v>3</v>
@@ -9269,10 +9239,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>86</v>
+      </c>
+      <c r="F219" t="s">
         <v>87</v>
-      </c>
-      <c r="F219" t="s">
-        <v>88</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -9298,10 +9268,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>92</v>
+      </c>
+      <c r="F220" t="s">
         <v>93</v>
-      </c>
-      <c r="F220" t="s">
-        <v>94</v>
       </c>
       <c r="G220" t="n">
         <v>9</v>
@@ -9327,10 +9297,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F221" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G221" t="n">
         <v>3</v>
@@ -9356,10 +9326,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F222" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G222" t="n">
         <v>4</v>
@@ -9385,10 +9355,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F223" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9414,10 +9384,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F224" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9443,10 +9413,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F225" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G225" t="n">
         <v>3</v>
@@ -9472,10 +9442,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F226" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9501,10 +9471,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F227" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -9530,10 +9500,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F228" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -9559,10 +9529,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F229" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -9588,10 +9558,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F230" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -9617,10 +9587,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F231" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G231" t="n">
         <v>3</v>
@@ -9646,10 +9616,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F232" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -9675,10 +9645,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F233" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G233" t="n">
         <v>4</v>
@@ -9704,10 +9674,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F234" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9733,10 +9703,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F235" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -9762,10 +9732,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F236" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -9791,10 +9761,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F237" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -9820,10 +9790,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F238" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9849,10 +9819,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F239" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -9878,10 +9848,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F240" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G240" t="n">
         <v>4</v>
@@ -9907,10 +9877,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F241" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -9936,10 +9906,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F242" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -9965,10 +9935,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F243" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -9994,10 +9964,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F244" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G244" t="n">
         <v>3</v>
@@ -10023,10 +9993,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F245" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G245" t="n">
         <v>3</v>
@@ -10052,10 +10022,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F246" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G246" t="n">
         <v>4</v>
@@ -10081,10 +10051,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F247" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10110,10 +10080,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F248" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G248" t="n">
         <v>3</v>
@@ -10139,10 +10109,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F249" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -10168,10 +10138,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F250" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G250" t="n">
         <v>3</v>
@@ -10197,10 +10167,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F251" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10226,10 +10196,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F252" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10255,10 +10225,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F253" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10284,10 +10254,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F254" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10313,10 +10283,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F255" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10342,10 +10312,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F256" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10371,10 +10341,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F257" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10400,10 +10370,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F258" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10429,10 +10399,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F259" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10458,10 +10428,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F260" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10487,10 +10457,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F261" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10516,10 +10486,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F262" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10545,10 +10515,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F263" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10574,10 +10544,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F264" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10603,10 +10573,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F265" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10632,10 +10602,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F266" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10661,10 +10631,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F267" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10690,10 +10660,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F268" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10719,10 +10689,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F269" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10748,10 +10718,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F270" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10777,10 +10747,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F271" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10806,10 +10776,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F272" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10835,10 +10805,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F273" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10864,10 +10834,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F274" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -10893,10 +10863,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F275" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -10922,10 +10892,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F276" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10951,10 +10921,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F277" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -10980,10 +10950,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F278" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11009,10 +10979,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F279" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -11038,10 +11008,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F280" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -11067,10 +11037,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F281" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11096,10 +11066,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F282" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11125,10 +11095,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F283" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11154,10 +11124,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F284" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11183,10 +11153,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F285" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -11212,10 +11182,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F286" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11241,10 +11211,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F287" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11270,10 +11240,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F288" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11299,10 +11269,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F289" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -11328,10 +11298,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F290" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11357,10 +11327,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F291" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11386,10 +11356,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F292" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11415,10 +11385,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F293" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11444,10 +11414,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F294" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11473,10 +11443,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F295" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G295" t="n">
         <v>5</v>
@@ -11502,10 +11472,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F296" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -11531,10 +11501,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F297" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11560,10 +11530,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F298" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11589,10 +11559,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F299" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11618,10 +11588,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F300" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11647,10 +11617,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F301" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11676,10 +11646,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F302" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G302" t="n">
         <v>9</v>
@@ -11705,10 +11675,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F303" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -11734,10 +11704,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F304" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -11763,10 +11733,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F305" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G305" t="n">
         <v>3</v>
@@ -11792,10 +11762,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F306" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11821,10 +11791,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F307" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G307" t="n">
         <v>4</v>
@@ -11850,10 +11820,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F308" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G308" t="n">
         <v>2</v>
@@ -11879,10 +11849,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F309" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -11908,10 +11878,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F310" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -11937,10 +11907,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F311" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11966,10 +11936,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F312" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -11995,10 +11965,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F313" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -12024,10 +11994,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F314" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G314" t="n">
         <v>2</v>
@@ -12053,10 +12023,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F315" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G315" t="n">
         <v>3</v>
@@ -12082,10 +12052,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F316" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G316" t="n">
         <v>3</v>
@@ -12111,10 +12081,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F317" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G317" t="n">
         <v>2</v>
@@ -12140,10 +12110,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F318" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12169,10 +12139,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F319" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12198,10 +12168,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F320" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12227,10 +12197,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F321" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12256,10 +12226,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F322" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -12285,10 +12255,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F323" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -12314,10 +12284,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F324" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -12343,10 +12313,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F325" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12372,10 +12342,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F326" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12401,10 +12371,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F327" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12430,10 +12400,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F328" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G328" t="n">
         <v>3</v>
@@ -12459,10 +12429,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F329" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12488,10 +12458,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F330" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12517,10 +12487,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F331" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12546,10 +12516,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F332" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -12575,10 +12545,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F333" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12604,10 +12574,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F334" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12633,10 +12603,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F335" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G335" t="n">
         <v>2</v>
@@ -12662,10 +12632,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F336" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12691,10 +12661,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F337" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G337" t="n">
         <v>3</v>
@@ -12720,10 +12690,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F338" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12749,10 +12719,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F339" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12778,10 +12748,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F340" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G340" t="n">
         <v>2</v>
@@ -12807,10 +12777,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F341" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12836,10 +12806,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F342" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -12865,10 +12835,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F343" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -12894,10 +12864,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F344" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12923,10 +12893,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F345" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G345" t="n">
         <v>2</v>
@@ -12952,10 +12922,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F346" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G346" t="n">
         <v>2</v>
@@ -12981,10 +12951,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F347" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -13010,10 +12980,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F348" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G348" t="n">
         <v>2</v>
@@ -13039,10 +13009,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F349" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -13068,10 +13038,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F350" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13097,10 +13067,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F351" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G351" t="n">
         <v>4</v>
@@ -13126,10 +13096,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F352" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G352" t="n">
         <v>2</v>
@@ -13155,10 +13125,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F353" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -13184,10 +13154,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F354" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13213,10 +13183,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F355" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G355" t="n">
         <v>3</v>
@@ -13242,10 +13212,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F356" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G356" t="n">
         <v>2</v>
@@ -13271,10 +13241,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F357" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -13300,10 +13270,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F358" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13329,10 +13299,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F359" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13358,10 +13328,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F360" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G360" t="n">
         <v>2</v>
@@ -13387,10 +13357,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F361" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G361" t="n">
         <v>2</v>
@@ -13416,10 +13386,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F362" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="G362" t="n">
         <v>2</v>
@@ -13445,10 +13415,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F363" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G363" t="n">
         <v>3</v>
@@ -13474,10 +13444,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F364" t="s">
-        <v>692</v>
+        <v>16</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13503,10 +13473,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F365" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13532,10 +13502,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F366" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="G366" t="n">
         <v>2</v>
@@ -13561,10 +13531,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F367" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13590,10 +13560,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="F368" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="G368" t="n">
         <v>2</v>
@@ -13619,10 +13589,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="F369" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13648,10 +13618,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F370" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13677,10 +13647,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F371" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="G371" t="n">
         <v>2</v>
@@ -13706,10 +13676,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F372" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G372" t="n">
         <v>2</v>
@@ -13735,10 +13705,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F373" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13764,10 +13734,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
+        <v>92</v>
+      </c>
+      <c r="F374" t="s">
         <v>93</v>
-      </c>
-      <c r="F374" t="s">
-        <v>94</v>
       </c>
       <c r="G374" t="n">
         <v>2</v>
@@ -13793,10 +13763,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="F375" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="G375" t="n">
         <v>2</v>
@@ -13822,10 +13792,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="F376" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13851,10 +13821,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="F377" t="s">
-        <v>708</v>
+        <v>613</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13880,10 +13850,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F378" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13909,10 +13879,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F379" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13938,10 +13908,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F380" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13967,10 +13937,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F381" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13996,10 +13966,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F382" t="s">
-        <v>692</v>
+        <v>16</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14025,10 +13995,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="F383" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="G383" t="n">
         <v>3</v>
@@ -14054,10 +14024,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="F384" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14083,10 +14053,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="F385" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="G385" t="n">
         <v>2</v>
@@ -14112,10 +14082,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="F386" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14141,10 +14111,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="F387" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="G387" t="n">
         <v>2</v>
@@ -14170,10 +14140,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F388" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14199,10 +14169,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F389" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14228,10 +14198,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F390" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14257,10 +14227,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="F391" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14286,10 +14256,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="F392" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14315,10 +14285,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="F393" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14344,10 +14314,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="F394" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14373,10 +14343,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="F395" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14402,10 +14372,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="F396" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14431,10 +14401,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="F397" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14460,10 +14430,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="F398" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14489,10 +14459,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F399" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14518,10 +14488,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="F400" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14547,10 +14517,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F401" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14576,10 +14546,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="F402" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14605,10 +14575,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="F403" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14634,10 +14604,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="F404" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14663,10 +14633,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="F405" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14692,10 +14662,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F406" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14721,10 +14691,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="F407" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14750,10 +14720,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="F408" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14779,10 +14749,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="F409" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14808,10 +14778,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="F410" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14837,10 +14807,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="F411" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14866,10 +14836,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="F412" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14895,10 +14865,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="F413" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14924,10 +14894,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F414" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14953,10 +14923,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="F415" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -14982,10 +14952,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="F416" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15011,10 +14981,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="F417" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15040,10 +15010,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F418" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15069,10 +15039,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="F419" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15098,10 +15068,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="F420" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15127,10 +15097,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="F421" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15156,10 +15126,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="F422" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15185,10 +15155,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="F423" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15214,10 +15184,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="F424" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15243,10 +15213,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="F425" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15272,10 +15242,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="F426" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="G426" t="n">
         <v>2</v>
@@ -15301,10 +15271,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="F427" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15330,10 +15300,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="F428" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="G428" t="n">
         <v>2</v>
@@ -15359,10 +15329,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="F429" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15388,10 +15358,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="F430" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15417,10 +15387,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F431" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15446,10 +15416,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="F432" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15475,10 +15445,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="F433" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15504,10 +15474,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="F434" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15533,10 +15503,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="F435" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="G435" t="n">
         <v>2</v>
@@ -15562,10 +15532,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="F436" t="s">
-        <v>808</v>
+        <v>783</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15591,10 +15561,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="F437" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15620,10 +15590,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="F438" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15649,10 +15619,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="F439" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15678,10 +15648,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="F440" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15707,10 +15677,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="F441" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15736,10 +15706,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="F442" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15765,10 +15735,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="F443" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="G443" t="n">
         <v>2</v>
@@ -15794,10 +15764,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F444" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G444" t="n">
         <v>3</v>
@@ -15823,10 +15793,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="F445" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G445" t="n">
         <v>3</v>
@@ -15852,10 +15822,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="F446" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="G446" t="n">
         <v>2</v>
@@ -15881,10 +15851,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="F447" t="s">
-        <v>828</v>
+        <v>698</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -15910,10 +15880,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="F448" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -15939,10 +15909,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="F449" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -15968,10 +15938,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="F450" t="s">
-        <v>832</v>
+        <v>683</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -15997,10 +15967,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="F451" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16026,10 +15996,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="F452" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16055,10 +16025,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="F453" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16084,10 +16054,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="F454" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16113,10 +16083,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="F455" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="G455" t="n">
         <v>3</v>
@@ -16142,10 +16112,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="F456" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16171,10 +16141,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="F457" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16200,10 +16170,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="F458" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16229,10 +16199,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="F459" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16258,10 +16228,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="F460" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16287,10 +16257,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="F461" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16316,10 +16286,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="F462" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>

--- a/xlsx/乍得_intext.xlsx
+++ b/xlsx/乍得_intext.xlsx
@@ -29,7 +29,7 @@
     <t>阿拉伯語</t>
   </si>
   <si>
-    <t>政策_政策_美國_乍得</t>
+    <t>体育运动_体育运动_伊朗_乍得</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
